--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnc</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H2">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>3.643950587148001</v>
+        <v>34.46861925184889</v>
       </c>
       <c r="R2">
-        <v>32.795555284332</v>
+        <v>310.21757326664</v>
       </c>
       <c r="S2">
-        <v>0.000404633062673973</v>
+        <v>0.004206919650994549</v>
       </c>
       <c r="T2">
-        <v>0.000404633062673973</v>
+        <v>0.004206919650994549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H3">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>239.4915797726007</v>
+        <v>967.7909209805231</v>
       </c>
       <c r="R3">
-        <v>2155.424217953406</v>
+        <v>8710.118288824708</v>
       </c>
       <c r="S3">
-        <v>0.02659372268926973</v>
+        <v>0.1181195746130355</v>
       </c>
       <c r="T3">
-        <v>0.02659372268926973</v>
+        <v>0.1181195746130354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H4">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>1.215632508859333</v>
+        <v>17.70414272455978</v>
       </c>
       <c r="R4">
-        <v>10.940692579734</v>
+        <v>159.337284521038</v>
       </c>
       <c r="S4">
-        <v>0.0001349867659788383</v>
+        <v>0.002160803291474102</v>
       </c>
       <c r="T4">
-        <v>0.0001349867659788383</v>
+        <v>0.002160803291474102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H5">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>103.2035209351793</v>
+        <v>159.9980705272416</v>
       </c>
       <c r="R5">
-        <v>928.831688416614</v>
+        <v>1439.982634745174</v>
       </c>
       <c r="S5">
-        <v>0.01145996789913195</v>
+        <v>0.01952787902828917</v>
       </c>
       <c r="T5">
-        <v>0.01145996789913195</v>
+        <v>0.01952787902828917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H6">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>13.24775322816667</v>
+        <v>100.7589127990207</v>
       </c>
       <c r="R6">
-        <v>119.2297790535</v>
+        <v>906.8302151911861</v>
       </c>
       <c r="S6">
-        <v>0.001471062473011622</v>
+        <v>0.01229769742645868</v>
       </c>
       <c r="T6">
-        <v>0.001471062473011622</v>
+        <v>0.01229769742645868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H7">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>2.285406294096</v>
+        <v>3.638924901534</v>
       </c>
       <c r="R7">
-        <v>20.568656646864</v>
+        <v>32.750324113806</v>
       </c>
       <c r="S7">
-        <v>0.0002537770274646372</v>
+        <v>0.0004441333888341244</v>
       </c>
       <c r="T7">
-        <v>0.0002537770274646372</v>
+        <v>0.0004441333888341243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J8">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>59.363464969254</v>
+        <v>138.9566562166355</v>
       </c>
       <c r="R8">
-        <v>534.271184723286</v>
+        <v>1250.60990594972</v>
       </c>
       <c r="S8">
-        <v>0.006591862339233403</v>
+        <v>0.01695975935104801</v>
       </c>
       <c r="T8">
-        <v>0.006591862339233405</v>
+        <v>0.01695975935104802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J9">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>3901.548516163962</v>
+        <v>3901.548516163963</v>
       </c>
       <c r="R9">
-        <v>35113.93664547566</v>
+        <v>35113.93664547567</v>
       </c>
       <c r="S9">
-        <v>0.4332373580570727</v>
+        <v>0.4761867889755515</v>
       </c>
       <c r="T9">
-        <v>0.4332373580570728</v>
+        <v>0.4761867889755515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J10">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>19.80382448370078</v>
+        <v>71.37241141607208</v>
       </c>
       <c r="R10">
-        <v>178.234420353307</v>
+        <v>642.3517027446488</v>
       </c>
       <c r="S10">
-        <v>0.002199064438952611</v>
+        <v>0.008711053898947101</v>
       </c>
       <c r="T10">
-        <v>0.002199064438952612</v>
+        <v>0.008711053898947101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J11">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>1681.284763121394</v>
+        <v>645.0155928536751</v>
       </c>
       <c r="R11">
-        <v>15131.56286809255</v>
+        <v>5805.140335683076</v>
       </c>
       <c r="S11">
-        <v>0.186693915479613</v>
+        <v>0.07872461478504021</v>
       </c>
       <c r="T11">
-        <v>0.186693915479613</v>
+        <v>0.07872461478504021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J12">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>215.8186605096388</v>
+        <v>406.1990851526336</v>
       </c>
       <c r="R12">
-        <v>1942.36794458675</v>
+        <v>3655.791766373703</v>
       </c>
       <c r="S12">
-        <v>0.02396502463348655</v>
+        <v>0.04957688908449561</v>
       </c>
       <c r="T12">
-        <v>0.02396502463348655</v>
+        <v>0.04957688908449561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>254.912293</v>
       </c>
       <c r="I13">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J13">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>37.23146986640799</v>
+        <v>14.669947549857</v>
       </c>
       <c r="R13">
-        <v>335.0832287976719</v>
+        <v>132.029527948713</v>
       </c>
       <c r="S13">
-        <v>0.004134272219011989</v>
+        <v>0.001790477598641911</v>
       </c>
       <c r="T13">
-        <v>0.00413427221901199</v>
+        <v>0.001790477598641911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H14">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>0.023444526894</v>
+        <v>45.67069703857778</v>
       </c>
       <c r="R14">
-        <v>0.211000742046</v>
+        <v>411.0362733472</v>
       </c>
       <c r="S14">
-        <v>2.603336816234455E-06</v>
+        <v>0.005574141262879436</v>
       </c>
       <c r="T14">
-        <v>2.603336816234455E-06</v>
+        <v>0.005574141262879436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H15">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>1.540846026471444</v>
+        <v>1282.316695828098</v>
       </c>
       <c r="R15">
-        <v>13.867614238243</v>
+        <v>11540.85026245288</v>
       </c>
       <c r="S15">
-        <v>0.0001710992594134316</v>
+        <v>0.1565076705585838</v>
       </c>
       <c r="T15">
-        <v>0.0001710992594134316</v>
+        <v>0.1565076705585838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H16">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.007821162325222222</v>
+        <v>23.45787432891555</v>
       </c>
       <c r="R16">
-        <v>0.07039046092700001</v>
+        <v>211.12086896024</v>
       </c>
       <c r="S16">
-        <v>8.684807298119447E-07</v>
+        <v>0.002863050352084583</v>
       </c>
       <c r="T16">
-        <v>8.684807298119447E-07</v>
+        <v>0.002863050352084583</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H17">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>0.6639930109518889</v>
+        <v>211.9964061343911</v>
       </c>
       <c r="R17">
-        <v>5.975937098567001</v>
+        <v>1907.96765520952</v>
       </c>
       <c r="S17">
-        <v>7.373138553611881E-05</v>
+        <v>0.02587431310754209</v>
       </c>
       <c r="T17">
-        <v>7.373138553611881E-05</v>
+        <v>0.02587431310754209</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H18">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>0.08523367686111111</v>
+        <v>133.5049062092533</v>
       </c>
       <c r="R18">
-        <v>0.76710309175</v>
+        <v>1201.54415588328</v>
       </c>
       <c r="S18">
-        <v>9.46455306856069E-06</v>
+        <v>0.01629436936049493</v>
       </c>
       <c r="T18">
-        <v>9.46455306856069E-06</v>
+        <v>0.01629436936049492</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H19">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.014703895688</v>
+        <v>4.82155190232</v>
       </c>
       <c r="R19">
-        <v>0.132335061192</v>
+        <v>43.39396712088</v>
       </c>
       <c r="S19">
-        <v>1.63275604407432E-06</v>
+        <v>0.0005884738607587867</v>
       </c>
       <c r="T19">
-        <v>1.63275604407432E-06</v>
+        <v>0.0005884738607587866</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H20">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>27.27138731444401</v>
+        <v>0.7339386779599999</v>
       </c>
       <c r="R20">
-        <v>245.442485829996</v>
+        <v>6.60544810164</v>
       </c>
       <c r="S20">
-        <v>0.003028280627989599</v>
+        <v>8.957774096997704E-05</v>
       </c>
       <c r="T20">
-        <v>0.003028280627989599</v>
+        <v>8.957774096997704E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H21">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>1792.359000026524</v>
+        <v>20.607126264509</v>
       </c>
       <c r="R21">
-        <v>16131.23100023872</v>
+        <v>185.464136380581</v>
       </c>
       <c r="S21">
-        <v>0.1990278666647946</v>
+        <v>0.002515114510368403</v>
       </c>
       <c r="T21">
-        <v>0.1990278666647946</v>
+        <v>0.002515114510368402</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H22">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>9.097814086189112</v>
+        <v>0.3769734729069999</v>
       </c>
       <c r="R22">
-        <v>81.880326775702</v>
+        <v>3.392761256162999</v>
       </c>
       <c r="S22">
-        <v>0.001010243220727734</v>
+        <v>4.600988219135154E-05</v>
       </c>
       <c r="T22">
-        <v>0.001010243220727734</v>
+        <v>4.600988219135154E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H23">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>772.3768817184825</v>
+        <v>3.406831341310999</v>
       </c>
       <c r="R23">
-        <v>6951.391935466342</v>
+        <v>30.661482071799</v>
       </c>
       <c r="S23">
-        <v>0.08576659197591614</v>
+        <v>0.0004158062036853008</v>
       </c>
       <c r="T23">
-        <v>0.08576659197591614</v>
+        <v>0.0004158062036853008</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H24">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>99.14640736505555</v>
+        <v>2.145454760229</v>
       </c>
       <c r="R24">
-        <v>892.3176662855</v>
+        <v>19.309092842061</v>
       </c>
       <c r="S24">
-        <v>0.01100945622224882</v>
+        <v>0.0002618542891196038</v>
       </c>
       <c r="T24">
-        <v>0.01100945622224882</v>
+        <v>0.0002618542891196037</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H25">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>17.104019038288</v>
+        <v>0.07748345565899999</v>
       </c>
       <c r="R25">
-        <v>153.936171344592</v>
+        <v>0.6973511009309999</v>
       </c>
       <c r="S25">
-        <v>0.001899271530164501</v>
+        <v>9.456911222845896E-06</v>
       </c>
       <c r="T25">
-        <v>0.001899271530164501</v>
+        <v>9.456911222845894E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H26">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I26">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J26">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>0.005635880478</v>
+        <v>0.05575659948444445</v>
       </c>
       <c r="R26">
-        <v>0.050722924302</v>
+        <v>0.50180939536</v>
       </c>
       <c r="S26">
-        <v>6.258217624357081E-07</v>
+        <v>6.80513287549689E-06</v>
       </c>
       <c r="T26">
-        <v>6.258217624357082E-07</v>
+        <v>6.805132875496889E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H27">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I27">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J27">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>0.3704073056989999</v>
+        <v>1.565503113760445</v>
       </c>
       <c r="R27">
-        <v>3.333665751291</v>
+        <v>14.089528023844</v>
       </c>
       <c r="S27">
-        <v>4.113092067450517E-05</v>
+        <v>0.0001910707755611273</v>
       </c>
       <c r="T27">
-        <v>4.113092067450517E-05</v>
+        <v>0.0001910707755611273</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H28">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I28">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J28">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>0.001880146111</v>
+        <v>0.02863830395688889</v>
       </c>
       <c r="R28">
-        <v>0.016921314999</v>
+        <v>0.257744735612</v>
       </c>
       <c r="S28">
-        <v>2.087759592162633E-07</v>
+        <v>3.495325496130174E-06</v>
       </c>
       <c r="T28">
-        <v>2.087759592162633E-07</v>
+        <v>3.495325496130174E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H29">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I29">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J29">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>0.159618714631</v>
+        <v>0.2588136261417778</v>
       </c>
       <c r="R29">
-        <v>1.436568431679</v>
+        <v>2.329322635276</v>
       </c>
       <c r="S29">
-        <v>1.772444708471597E-05</v>
+        <v>3.158838831940151E-05</v>
       </c>
       <c r="T29">
-        <v>1.772444708471598E-05</v>
+        <v>3.158838831940151E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H30">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I30">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J30">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>0.02048950775</v>
+        <v>0.1629880879293334</v>
       </c>
       <c r="R30">
-        <v>0.18440556975</v>
+        <v>1.466892791364</v>
       </c>
       <c r="S30">
-        <v>2.275204362760991E-06</v>
+        <v>1.989281279235345E-05</v>
       </c>
       <c r="T30">
-        <v>2.275204362760992E-06</v>
+        <v>1.989281279235344E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,433 +2326,61 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H31">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I31">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J31">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>0.003534701255999999</v>
+        <v>0.005886341916</v>
       </c>
       <c r="R31">
-        <v>0.03181231130399999</v>
+        <v>0.052977077244</v>
       </c>
       <c r="S31">
-        <v>3.925017534258701E-07</v>
+        <v>7.184322440639975E-07</v>
       </c>
       <c r="T31">
-        <v>3.925017534258702E-07</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.309271</v>
-      </c>
-      <c r="I32">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J32">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.6986340000000001</v>
-      </c>
-      <c r="N32">
-        <v>2.095902</v>
-      </c>
-      <c r="O32">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="P32">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="Q32">
-        <v>0.07202241193800002</v>
-      </c>
-      <c r="R32">
-        <v>0.6482017074420001</v>
-      </c>
-      <c r="S32">
-        <v>7.997542344954914E-06</v>
-      </c>
-      <c r="T32">
-        <v>7.997542344954916E-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.309271</v>
-      </c>
-      <c r="I33">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J33">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>45.91636366666666</v>
-      </c>
-      <c r="N33">
-        <v>137.749091</v>
-      </c>
-      <c r="O33">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="P33">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="Q33">
-        <v>4.733533235851222</v>
-      </c>
-      <c r="R33">
-        <v>42.601799122661</v>
-      </c>
-      <c r="S33">
-        <v>0.000525622948139535</v>
-      </c>
-      <c r="T33">
-        <v>0.0005256229481395351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.309271</v>
-      </c>
-      <c r="I34">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J34">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.2330663333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.699199</v>
-      </c>
-      <c r="O34">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="P34">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="Q34">
-        <v>0.02402688599211111</v>
-      </c>
-      <c r="R34">
-        <v>0.216241973929</v>
-      </c>
-      <c r="S34">
-        <v>2.668003375181726E-06</v>
-      </c>
-      <c r="T34">
-        <v>2.668003375181727E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.309271</v>
-      </c>
-      <c r="I35">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J35">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>19.78662633333333</v>
-      </c>
-      <c r="N35">
-        <v>59.35987900000001</v>
-      </c>
-      <c r="O35">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="P35">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="Q35">
-        <v>2.039809904245445</v>
-      </c>
-      <c r="R35">
-        <v>18.358289138209</v>
-      </c>
-      <c r="S35">
-        <v>0.0002265054119390601</v>
-      </c>
-      <c r="T35">
-        <v>0.0002265054119390602</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.309271</v>
-      </c>
-      <c r="I36">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J36">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.539916666666667</v>
-      </c>
-      <c r="N36">
-        <v>7.61975</v>
-      </c>
-      <c r="O36">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="P36">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="Q36">
-        <v>0.2618408558055556</v>
-      </c>
-      <c r="R36">
-        <v>2.35656770225</v>
-      </c>
-      <c r="S36">
-        <v>2.907544020806804E-05</v>
-      </c>
-      <c r="T36">
-        <v>2.907544020806804E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.309271</v>
-      </c>
-      <c r="I37">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J37">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4381679999999999</v>
-      </c>
-      <c r="N37">
-        <v>1.314504</v>
-      </c>
-      <c r="O37">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="P37">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="Q37">
-        <v>0.045170885176</v>
-      </c>
-      <c r="R37">
-        <v>0.406537966584</v>
-      </c>
-      <c r="S37">
-        <v>5.015884045443257E-06</v>
-      </c>
-      <c r="T37">
-        <v>5.015884045443258E-06</v>
+        <v>7.184322440639974E-07</v>
       </c>
     </row>
   </sheetData>
